--- a/Banco Central/13/1/2/3/Operaciones no financieras 2005 a 2021 - Mensual.xlsx
+++ b/Banco Central/13/1/2/3/Operaciones no financieras 2005 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="222">
   <si>
     <t>Serie</t>
   </si>
@@ -677,6 +677,9 @@
   </si>
   <si>
     <t>01-05-2021</t>
+  </si>
+  <si>
+    <t>01-06-2021</t>
   </si>
 </sst>
 </file>
@@ -1034,7 +1037,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X198"/>
+  <dimension ref="A1:X199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11655,7 +11658,7 @@
         <v>0</v>
       </c>
       <c r="J194">
-        <v>2368</v>
+        <v>2372</v>
       </c>
       <c r="K194">
         <v>0</v>
@@ -11664,7 +11667,7 @@
         <v>0</v>
       </c>
       <c r="M194">
-        <v>2368</v>
+        <v>2372</v>
       </c>
       <c r="N194">
         <v>0</v>
@@ -11676,7 +11679,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>-2368</v>
+        <v>-2372</v>
       </c>
       <c r="R194">
         <v>0</v>
@@ -11694,10 +11697,10 @@
         <v>0</v>
       </c>
       <c r="W194">
-        <v>2368</v>
+        <v>2372</v>
       </c>
       <c r="X194">
-        <v>-2368</v>
+        <v>-2372</v>
       </c>
     </row>
     <row r="195" spans="1:24">
@@ -11729,7 +11732,7 @@
         <v>0</v>
       </c>
       <c r="J195">
-        <v>2318</v>
+        <v>2324</v>
       </c>
       <c r="K195">
         <v>0</v>
@@ -11738,7 +11741,7 @@
         <v>0</v>
       </c>
       <c r="M195">
-        <v>2318</v>
+        <v>2324</v>
       </c>
       <c r="N195">
         <v>0</v>
@@ -11750,7 +11753,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>-2318</v>
+        <v>-2324</v>
       </c>
       <c r="R195">
         <v>0</v>
@@ -11768,10 +11771,10 @@
         <v>0</v>
       </c>
       <c r="W195">
-        <v>2318</v>
+        <v>2324</v>
       </c>
       <c r="X195">
-        <v>-2318</v>
+        <v>-2324</v>
       </c>
     </row>
     <row r="196" spans="1:24">
@@ -11803,7 +11806,7 @@
         <v>0</v>
       </c>
       <c r="J196">
-        <v>2267</v>
+        <v>2276</v>
       </c>
       <c r="K196">
         <v>0</v>
@@ -11812,7 +11815,7 @@
         <v>0</v>
       </c>
       <c r="M196">
-        <v>2267</v>
+        <v>2276</v>
       </c>
       <c r="N196">
         <v>0</v>
@@ -11824,7 +11827,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>-2267</v>
+        <v>-2276</v>
       </c>
       <c r="R196">
         <v>0</v>
@@ -11842,10 +11845,10 @@
         <v>0</v>
       </c>
       <c r="W196">
-        <v>2267</v>
+        <v>2276</v>
       </c>
       <c r="X196">
-        <v>-2267</v>
+        <v>-2276</v>
       </c>
     </row>
     <row r="197" spans="1:24">
@@ -11877,7 +11880,7 @@
         <v>0</v>
       </c>
       <c r="J197">
-        <v>2187</v>
+        <v>2197</v>
       </c>
       <c r="K197">
         <v>0</v>
@@ -11886,7 +11889,7 @@
         <v>0</v>
       </c>
       <c r="M197">
-        <v>2187</v>
+        <v>2197</v>
       </c>
       <c r="N197">
         <v>0</v>
@@ -11898,7 +11901,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>-2187</v>
+        <v>-2197</v>
       </c>
       <c r="R197">
         <v>0</v>
@@ -11916,10 +11919,10 @@
         <v>0</v>
       </c>
       <c r="W197">
-        <v>2187</v>
+        <v>2197</v>
       </c>
       <c r="X197">
-        <v>-2187</v>
+        <v>-2197</v>
       </c>
     </row>
     <row r="198" spans="1:24">
@@ -11951,7 +11954,7 @@
         <v>0</v>
       </c>
       <c r="J198">
-        <v>2122</v>
+        <v>2134</v>
       </c>
       <c r="K198">
         <v>0</v>
@@ -11960,7 +11963,7 @@
         <v>0</v>
       </c>
       <c r="M198">
-        <v>2122</v>
+        <v>2134</v>
       </c>
       <c r="N198">
         <v>0</v>
@@ -11972,7 +11975,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>-2122</v>
+        <v>-2134</v>
       </c>
       <c r="R198">
         <v>0</v>
@@ -11990,10 +11993,84 @@
         <v>0</v>
       </c>
       <c r="W198">
-        <v>2122</v>
+        <v>2134</v>
       </c>
       <c r="X198">
-        <v>-2122</v>
+        <v>-2134</v>
+      </c>
+    </row>
+    <row r="199" spans="1:24">
+      <c r="A199" t="s">
+        <v>221</v>
+      </c>
+      <c r="B199">
+        <v>0</v>
+      </c>
+      <c r="C199">
+        <v>0</v>
+      </c>
+      <c r="D199">
+        <v>0</v>
+      </c>
+      <c r="E199">
+        <v>0</v>
+      </c>
+      <c r="F199">
+        <v>0</v>
+      </c>
+      <c r="G199">
+        <v>0</v>
+      </c>
+      <c r="H199">
+        <v>0</v>
+      </c>
+      <c r="I199">
+        <v>0</v>
+      </c>
+      <c r="J199">
+        <v>2071</v>
+      </c>
+      <c r="K199">
+        <v>0</v>
+      </c>
+      <c r="L199">
+        <v>0</v>
+      </c>
+      <c r="M199">
+        <v>2071</v>
+      </c>
+      <c r="N199">
+        <v>0</v>
+      </c>
+      <c r="O199">
+        <v>0</v>
+      </c>
+      <c r="P199">
+        <v>0</v>
+      </c>
+      <c r="Q199">
+        <v>-2071</v>
+      </c>
+      <c r="R199">
+        <v>0</v>
+      </c>
+      <c r="S199">
+        <v>0</v>
+      </c>
+      <c r="T199">
+        <v>0</v>
+      </c>
+      <c r="U199">
+        <v>0</v>
+      </c>
+      <c r="V199">
+        <v>0</v>
+      </c>
+      <c r="W199">
+        <v>2071</v>
+      </c>
+      <c r="X199">
+        <v>-2071</v>
       </c>
     </row>
   </sheetData>
